--- a/biology/Médecine/Benoît_Lengelé/Benoît_Lengelé.xlsx
+++ b/biology/Médecine/Benoît_Lengelé/Benoît_Lengelé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Lengel%C3%A9</t>
+          <t>Benoît_Lengelé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Lengelé, né à Bruxelles en 1962, est un médecin, chirurgien et anatomiste belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Lengel%C3%A9</t>
+          <t>Benoît_Lengelé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Bruxelles, Benoît Lengelé a étudié la médecine à l'Université Catholique de Louvain dont il est diplômé en 1987[1]. Il s'est intéressé à la morphologie du visage et aux modifications du visage causées par le vieillissement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Bruxelles, Benoît Lengelé a étudié la médecine à l'Université Catholique de Louvain dont il est diplômé en 1987. Il s'est intéressé à la morphologie du visage et aux modifications du visage causées par le vieillissement.
 En tant que professeur principal de la chaire d'anatomie humaine à l'UCLouvain (campus de Bruxelles Woluwe), il est également chef du département de morphologie expérimentale.[réf. nécessaire]
-Il est aussi un chirurgien plastique[2] à l'hôpital universitaire de l'UCLouvain à Bruxelles, depuis 1991, il a travaillé dans la chirurgie maxillo-faciale à l'hôpital universitaire central à Amiens, où il a rencontré Bernard Devauchelle et Sylvie Testelin. Avec ses collègues, il a développé plusieurs nouvelles techniques visant à reconstruire par microchirurgie, des parties spécifiques de la tête et du cou, comme le larynx ou la lèvre inférieure. Ensemble, ils sont arrivés à la conclusion que les résultats obtenus par ces autotransplants sont imparfaits et émettent l'idée que les allogreffes faciales pourraient être utilisées pour réparer des patients souffrant de défigurations sévères.[réf. nécessaire]
-Le 26 novembre 2005, Benoît Lengelé a réalisé, avec Bernard Devauchelle et Sylvie Testelin à Amiens, la première allogreffe faciale partielle pour réparer le visage mutilé d'Isabelle Dinoire, une jeune femme sévèrement défigurée par son chien[2],[3]. En 2009, il a reçu les honneurs de son pays à la suite de son travail dans les allogreffes et a été fait chevalier par le roi Albert II pour ses contributions[4].
-Il a également reçu le titre de chevalier de la Légion d'honneur par l'ambassadeur de France de Belgique en 2019 [5].
+Il est aussi un chirurgien plastique à l'hôpital universitaire de l'UCLouvain à Bruxelles, depuis 1991, il a travaillé dans la chirurgie maxillo-faciale à l'hôpital universitaire central à Amiens, où il a rencontré Bernard Devauchelle et Sylvie Testelin. Avec ses collègues, il a développé plusieurs nouvelles techniques visant à reconstruire par microchirurgie, des parties spécifiques de la tête et du cou, comme le larynx ou la lèvre inférieure. Ensemble, ils sont arrivés à la conclusion que les résultats obtenus par ces autotransplants sont imparfaits et émettent l'idée que les allogreffes faciales pourraient être utilisées pour réparer des patients souffrant de défigurations sévères.[réf. nécessaire]
+Le 26 novembre 2005, Benoît Lengelé a réalisé, avec Bernard Devauchelle et Sylvie Testelin à Amiens, la première allogreffe faciale partielle pour réparer le visage mutilé d'Isabelle Dinoire, une jeune femme sévèrement défigurée par son chien,. En 2009, il a reçu les honneurs de son pays à la suite de son travail dans les allogreffes et a été fait chevalier par le roi Albert II pour ses contributions.
+Il a également reçu le titre de chevalier de la Légion d'honneur par l'ambassadeur de France de Belgique en 2019 .
 </t>
         </is>
       </c>
